--- a/siglas/VMware_portfolio.xlsx
+++ b/siglas/VMware_portfolio.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Planilha1!$A$1:$Z$77</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -175,6 +178,9 @@
     <t xml:space="preserve">10.000.001.62</t>
   </si>
   <si>
+    <t xml:space="preserve">Homologation</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.0.14395</t>
   </si>
   <si>
@@ -184,6 +190,9 @@
     <t xml:space="preserve">10.000.001.63</t>
   </si>
   <si>
+    <t xml:space="preserve">Pre-Production</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.0.14396</t>
   </si>
   <si>
@@ -205,9 +214,6 @@
     <t xml:space="preserve">10.000.001.65</t>
   </si>
   <si>
-    <t xml:space="preserve">Homologation</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.0.14398</t>
   </si>
   <si>
@@ -380,9 +386,6 @@
   </si>
   <si>
     <t xml:space="preserve">10.000.001.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-Production</t>
   </si>
   <si>
     <t xml:space="preserve">10.0.14416</t>
@@ -1067,6 +1070,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1130,6 +1150,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1138,10 +1162,10 @@
   <dimension ref="A1:AMJ77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.06"/>
@@ -1152,15 +1176,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="22.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="5.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="5.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="9.63"/>
@@ -1461,8 +1485,8 @@
       <c r="L4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="11" t="s">
-        <v>36</v>
+      <c r="M4" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>37</v>
@@ -1474,7 +1498,7 @@
         <v>38</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R4" s="12" t="s">
         <v>40</v>
@@ -1511,10 +1535,10 @@
     </row>
     <row r="5" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>27</v>
@@ -1526,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>30</v>
@@ -1546,8 +1570,8 @@
       <c r="L5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>36</v>
+      <c r="M5" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="N5" s="11" t="s">
         <v>37</v>
@@ -1559,7 +1583,7 @@
         <v>38</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R5" s="12" t="s">
         <v>40</v>
@@ -1596,10 +1620,10 @@
     </row>
     <row r="6" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>27</v>
@@ -1611,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>30</v>
@@ -1631,8 +1655,8 @@
       <c r="L6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>36</v>
+      <c r="M6" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="N6" s="11" t="s">
         <v>37</v>
@@ -1644,7 +1668,7 @@
         <v>38</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R6" s="12" t="s">
         <v>40</v>
@@ -1681,22 +1705,22 @@
     </row>
     <row r="7" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E7" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>30</v>
@@ -1717,7 +1741,7 @@
         <v>35</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>37</v>
@@ -1729,7 +1753,7 @@
         <v>38</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R7" s="12" t="s">
         <v>40</v>
@@ -1766,22 +1790,22 @@
     </row>
     <row r="8" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E8" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>30</v>
@@ -1802,7 +1826,7 @@
         <v>35</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N8" s="11" t="s">
         <v>37</v>
@@ -1814,7 +1838,7 @@
         <v>38</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R8" s="12" t="s">
         <v>40</v>
@@ -1851,22 +1875,22 @@
     </row>
     <row r="9" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E9" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>30</v>
@@ -1887,7 +1911,7 @@
         <v>35</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N9" s="11" t="s">
         <v>37</v>
@@ -1899,7 +1923,7 @@
         <v>38</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R9" s="12" t="s">
         <v>40</v>
@@ -1936,22 +1960,22 @@
     </row>
     <row r="10" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E10" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>30</v>
@@ -1972,7 +1996,7 @@
         <v>35</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>37</v>
@@ -1984,7 +2008,7 @@
         <v>38</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R10" s="12" t="s">
         <v>40</v>
@@ -2021,22 +2045,22 @@
     </row>
     <row r="11" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E11" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>30</v>
@@ -2057,7 +2081,7 @@
         <v>35</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N11" s="11" t="s">
         <v>37</v>
@@ -2069,7 +2093,7 @@
         <v>38</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R11" s="12" t="s">
         <v>40</v>
@@ -2106,22 +2130,22 @@
     </row>
     <row r="12" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E12" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>30</v>
@@ -2142,7 +2166,7 @@
         <v>35</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N12" s="11" t="s">
         <v>37</v>
@@ -2154,7 +2178,7 @@
         <v>38</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R12" s="12" t="s">
         <v>40</v>
@@ -2191,22 +2215,22 @@
     </row>
     <row r="13" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E13" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>30</v>
@@ -2227,7 +2251,7 @@
         <v>35</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N13" s="11" t="s">
         <v>37</v>
@@ -2239,7 +2263,7 @@
         <v>38</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R13" s="12" t="s">
         <v>40</v>
@@ -2276,22 +2300,22 @@
     </row>
     <row r="14" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E14" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>30</v>
@@ -2312,7 +2336,7 @@
         <v>35</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>37</v>
@@ -2324,7 +2348,7 @@
         <v>38</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R14" s="12" t="s">
         <v>40</v>
@@ -2361,22 +2385,22 @@
     </row>
     <row r="15" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E15" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>30</v>
@@ -2397,7 +2421,7 @@
         <v>35</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N15" s="11" t="s">
         <v>37</v>
@@ -2409,7 +2433,7 @@
         <v>38</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R15" s="12" t="s">
         <v>40</v>
@@ -2446,28 +2470,28 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E16" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>32</v>
@@ -2482,7 +2506,7 @@
         <v>35</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>37</v>
@@ -2491,10 +2515,10 @@
         <v>46</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R16" s="12" t="s">
         <v>40</v>
@@ -2526,28 +2550,28 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E17" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>32</v>
@@ -2562,7 +2586,7 @@
         <v>35</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>37</v>
@@ -2571,10 +2595,10 @@
         <v>46</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R17" s="12" t="s">
         <v>40</v>
@@ -2606,28 +2630,28 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E18" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>32</v>
@@ -2651,10 +2675,10 @@
         <v>46</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R18" s="12" t="s">
         <v>40</v>
@@ -2686,28 +2710,28 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E19" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>32</v>
@@ -2731,10 +2755,10 @@
         <v>46</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R19" s="12" t="s">
         <v>40</v>
@@ -2766,28 +2790,28 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E20" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>32</v>
@@ -2811,10 +2835,10 @@
         <v>46</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R20" s="12" t="s">
         <v>40</v>
@@ -2846,28 +2870,28 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E21" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>32</v>
@@ -2891,10 +2915,10 @@
         <v>46</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q21" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R21" s="12" t="s">
         <v>40</v>
@@ -2926,28 +2950,28 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E22" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>32</v>
@@ -2962,7 +2986,7 @@
         <v>35</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N22" s="11" t="s">
         <v>37</v>
@@ -2971,10 +2995,10 @@
         <v>46</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R22" s="12" t="s">
         <v>40</v>
@@ -3006,28 +3030,28 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E23" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>32</v>
@@ -3042,7 +3066,7 @@
         <v>35</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N23" s="11" t="s">
         <v>37</v>
@@ -3051,10 +3075,10 @@
         <v>46</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="R23" s="12" t="s">
         <v>40</v>
@@ -3086,28 +3110,28 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E24" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>32</v>
@@ -3122,7 +3146,7 @@
         <v>35</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>37</v>
@@ -3131,10 +3155,10 @@
         <v>46</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R24" s="12" t="s">
         <v>40</v>
@@ -3166,28 +3190,28 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E25" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>32</v>
@@ -3202,7 +3226,7 @@
         <v>35</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="N25" s="11" t="s">
         <v>37</v>
@@ -3211,7 +3235,7 @@
         <v>37</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>121</v>
@@ -3255,7 +3279,7 @@
         <v>27</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E26" s="9" t="n">
         <v>1</v>
@@ -3267,7 +3291,7 @@
         <v>30</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>32</v>
@@ -3282,7 +3306,7 @@
         <v>35</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="N26" s="11" t="s">
         <v>37</v>
@@ -3291,7 +3315,7 @@
         <v>37</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>124</v>
@@ -3335,7 +3359,7 @@
         <v>27</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E27" s="9" t="n">
         <v>1</v>
@@ -3347,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>32</v>
@@ -3362,7 +3386,7 @@
         <v>35</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N27" s="11" t="s">
         <v>37</v>
@@ -3371,7 +3395,7 @@
         <v>37</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>127</v>
@@ -3427,7 +3451,7 @@
         <v>30</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>32</v>
@@ -3442,7 +3466,7 @@
         <v>35</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N28" s="11" t="s">
         <v>37</v>
@@ -3451,7 +3475,7 @@
         <v>37</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>131</v>
@@ -3507,7 +3531,7 @@
         <v>30</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>32</v>
@@ -3522,7 +3546,7 @@
         <v>35</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="N29" s="11" t="s">
         <v>37</v>
@@ -3531,7 +3555,7 @@
         <v>46</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>134</v>
@@ -3587,7 +3611,7 @@
         <v>30</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>32</v>
@@ -3611,7 +3635,7 @@
         <v>46</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>137</v>
@@ -3667,7 +3691,7 @@
         <v>30</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>32</v>
@@ -3691,7 +3715,7 @@
         <v>46</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>140</v>
@@ -3747,7 +3771,7 @@
         <v>30</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>32</v>
@@ -3771,7 +3795,7 @@
         <v>46</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>143</v>
@@ -3827,7 +3851,7 @@
         <v>30</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>32</v>
@@ -3842,7 +3866,7 @@
         <v>35</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N33" s="11" t="s">
         <v>37</v>
@@ -3851,7 +3875,7 @@
         <v>46</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q33" s="12" t="s">
         <v>146</v>
@@ -3907,7 +3931,7 @@
         <v>30</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>32</v>
@@ -3922,7 +3946,7 @@
         <v>35</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N34" s="11" t="s">
         <v>37</v>
@@ -3931,7 +3955,7 @@
         <v>46</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q34" s="12" t="s">
         <v>149</v>
@@ -4002,7 +4026,7 @@
         <v>35</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N35" s="11" t="s">
         <v>37</v>
@@ -4082,7 +4106,7 @@
         <v>35</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="N36" s="11" t="s">
         <v>37</v>
@@ -4242,7 +4266,7 @@
         <v>35</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="N38" s="11" t="s">
         <v>37</v>
@@ -4322,7 +4346,7 @@
         <v>35</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N39" s="11" t="s">
         <v>37</v>
@@ -4402,7 +4426,7 @@
         <v>35</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N40" s="11" t="s">
         <v>37</v>
@@ -4482,7 +4506,7 @@
         <v>35</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N41" s="11" t="s">
         <v>37</v>
@@ -4562,7 +4586,7 @@
         <v>35</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N42" s="11" t="s">
         <v>37</v>
@@ -4882,7 +4906,7 @@
         <v>35</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N46" s="11" t="s">
         <v>37</v>
@@ -4962,7 +4986,7 @@
         <v>35</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N47" s="11" t="s">
         <v>37</v>
@@ -5042,7 +5066,7 @@
         <v>35</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N48" s="11" t="s">
         <v>37</v>
@@ -5122,7 +5146,7 @@
         <v>35</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N49" s="11" t="s">
         <v>37</v>
@@ -5282,7 +5306,7 @@
         <v>35</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="N51" s="11" t="s">
         <v>37</v>
@@ -5507,7 +5531,7 @@
         <v>30</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>32</v>
@@ -5522,7 +5546,7 @@
         <v>35</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="N54" s="11" t="s">
         <v>37</v>
@@ -5531,7 +5555,7 @@
         <v>46</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q54" s="12" t="s">
         <v>212</v>
@@ -5587,7 +5611,7 @@
         <v>30</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>32</v>
@@ -5602,7 +5626,7 @@
         <v>35</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N55" s="11" t="s">
         <v>37</v>
@@ -5611,7 +5635,7 @@
         <v>37</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q55" s="12" t="s">
         <v>215</v>
@@ -5667,7 +5691,7 @@
         <v>30</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>32</v>
@@ -5682,7 +5706,7 @@
         <v>35</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N56" s="11" t="s">
         <v>37</v>
@@ -5691,7 +5715,7 @@
         <v>37</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q56" s="12" t="s">
         <v>218</v>
@@ -5747,7 +5771,7 @@
         <v>30</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>32</v>
@@ -5762,7 +5786,7 @@
         <v>35</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N57" s="11" t="s">
         <v>37</v>
@@ -5771,7 +5795,7 @@
         <v>37</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q57" s="12" t="s">
         <v>221</v>
@@ -5827,7 +5851,7 @@
         <v>30</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>32</v>
@@ -5851,7 +5875,7 @@
         <v>46</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q58" s="12" t="s">
         <v>225</v>
@@ -5907,7 +5931,7 @@
         <v>30</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>32</v>
@@ -5931,7 +5955,7 @@
         <v>46</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q59" s="12" t="s">
         <v>228</v>
@@ -5987,7 +6011,7 @@
         <v>30</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>32</v>
@@ -6011,7 +6035,7 @@
         <v>46</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q60" s="12" t="s">
         <v>231</v>
@@ -6067,7 +6091,7 @@
         <v>30</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>32</v>
@@ -6091,7 +6115,7 @@
         <v>46</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q61" s="12" t="s">
         <v>235</v>
@@ -6242,7 +6266,7 @@
         <v>35</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N63" s="11" t="s">
         <v>37</v>
@@ -6322,7 +6346,7 @@
         <v>35</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N64" s="11" t="s">
         <v>37</v>
@@ -6402,7 +6426,7 @@
         <v>35</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N65" s="11" t="s">
         <v>37</v>
@@ -6642,7 +6666,7 @@
         <v>35</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="N68" s="11" t="s">
         <v>37</v>
@@ -6802,7 +6826,7 @@
         <v>35</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="N70" s="11" t="s">
         <v>37</v>
@@ -6882,7 +6906,7 @@
         <v>35</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N71" s="11" t="s">
         <v>37</v>
@@ -6947,7 +6971,7 @@
         <v>30</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I72" s="9" t="s">
         <v>32</v>
@@ -6962,7 +6986,7 @@
         <v>35</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N72" s="11" t="s">
         <v>37</v>
@@ -6971,7 +6995,7 @@
         <v>46</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q72" s="12" t="s">
         <v>268</v>
@@ -7027,7 +7051,7 @@
         <v>30</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>32</v>
@@ -7042,7 +7066,7 @@
         <v>35</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N73" s="11" t="s">
         <v>37</v>
@@ -7051,7 +7075,7 @@
         <v>46</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q73" s="12" t="s">
         <v>271</v>
@@ -7107,7 +7131,7 @@
         <v>30</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I74" s="9" t="s">
         <v>32</v>
@@ -7122,7 +7146,7 @@
         <v>35</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N74" s="11" t="s">
         <v>37</v>
@@ -7131,7 +7155,7 @@
         <v>46</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q74" s="12" t="s">
         <v>274</v>
@@ -7187,7 +7211,7 @@
         <v>30</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I75" s="9" t="s">
         <v>32</v>
@@ -7202,7 +7226,7 @@
         <v>35</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N75" s="11" t="s">
         <v>37</v>
@@ -7211,7 +7235,7 @@
         <v>46</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q75" s="12" t="s">
         <v>277</v>
@@ -7267,7 +7291,7 @@
         <v>30</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>32</v>
@@ -7282,7 +7306,7 @@
         <v>35</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N76" s="11" t="s">
         <v>37</v>
@@ -7291,7 +7315,7 @@
         <v>37</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q76" s="12" t="s">
         <v>280</v>
@@ -7347,7 +7371,7 @@
         <v>30</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>32</v>
@@ -7362,7 +7386,7 @@
         <v>35</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N77" s="11" t="s">
         <v>37</v>
@@ -7371,7 +7395,7 @@
         <v>37</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q77" s="12" t="s">
         <v>283</v>
@@ -7405,6 +7429,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Z77"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7412,5 +7437,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>